--- a/medicine/Handicap/Les_Clefs_de_la_maison/Les_Clefs_de_la_maison.xlsx
+++ b/medicine/Handicap/Les_Clefs_de_la_maison/Les_Clefs_de_la_maison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clefs de la maison (Le chiavi di casa) est un film franco-germano-italien réalisé par Gianni Amelio, sorti en 2004.
 Librement adapté du livre autobiographique Nés deux fois (it) de Giuseppe Pontiggia, le film a été présente en compétition à la Mostra de Venise 2004.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gianni (Kim Rossi Stuart) est un jeune père qui a abandonné son fils Paolo à la naissance. L'enfant (Andrea Rossi) est né handicapé, et sa mère est morte lors de l'accouchement.
 Quinze ans plus tard, il décide de faire la connaissance de son fils. L'occasion est donnée par un voyage pour amener le jeune homme à une clinique de Berlin pour y suivre certaines thérapies. Durant le séjour dans la ville allemande, Gianni fera la connaissance de Nicole (Charlotte Rampling), une femme mure handicapée, qui lui fera comprendre la grandeur de la tâche qui l'attend. Également grâce à Nicole, Gianni et Paolo apprennent à se connaître à fond et à se confronter.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Le chiavi di casa
 Titre français : Les Clefs de la maison
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kim Rossi Stuart : Gianni
 Andrea Rossi : Paolo
@@ -633,7 +651,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2004 - Mostra de Venise
 Prix Pasinetti : Gianni Amelio
